--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3596758.707221538</v>
+        <v>3702678.722783818</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7626437.358658513</v>
+        <v>7605429.561504688</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>62.07870293839544</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>37.40802781601008</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>164.6425939461733</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.8061823744221</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>315.8867849462297</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>39.76150183011045</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>108.4721783769029</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.02665421517014</v>
+        <v>42.24368752399504</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>65.11018949396434</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>73.98454765968138</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>194.9310885351604</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>54.84205284513853</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>101.393069766707</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.17596778974989</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.37250637580677</v>
+        <v>32.4720786658923</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>26.05480806223585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>107.1685137621107</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>79.7011924439779</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652732</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652732</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>143.5476780877535</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>91.3278421053881</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652576</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808191</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261742</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>10.58364443467423</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.962173606588</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002309</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808189</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>126.9420388308264</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>59.45282559760403</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>174.1401868743384</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223196</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8708262827847</v>
+        <v>511.6829242757562</v>
       </c>
       <c r="D2" t="n">
-        <v>883.8708262827847</v>
+        <v>511.6829242757562</v>
       </c>
       <c r="E2" t="n">
-        <v>883.8708262827847</v>
+        <v>511.6829242757562</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>504.7374235265527</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>89.03267325084158</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287318</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551.0642295677645</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>382.1280466398576</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>1250.119415332982</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W4" t="n">
-        <v>960.7022452960216</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="X4" t="n">
-        <v>732.7126943980043</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="Y4" t="n">
-        <v>732.7126943980043</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.433183287317</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C5" t="n">
-        <v>1639.433183287317</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2313.430553844252</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794323</v>
+        <v>1982.367666500681</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>1982.367666500681</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>1608.901908239602</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287317</v>
+        <v>1218.76257626379</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>160.8146435143697</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>160.8146435143697</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>160.8146435143697</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>160.8146435143697</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8175152271517</v>
+        <v>160.8146435143697</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>160.8146435143697</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>342.4631083446094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>2345.840931351813</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1861.526679912771</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1861.526679912771</v>
       </c>
       <c r="T10" t="n">
-        <v>1660.876797592409</v>
+        <v>1861.526679912771</v>
       </c>
       <c r="U10" t="n">
-        <v>1660.876797592409</v>
+        <v>1572.423813038415</v>
       </c>
       <c r="V10" t="n">
-        <v>1660.876797592409</v>
+        <v>1317.739324832528</v>
       </c>
       <c r="W10" t="n">
-        <v>1371.459627555448</v>
+        <v>1028.322154795567</v>
       </c>
       <c r="X10" t="n">
-        <v>1143.470076657431</v>
+        <v>1028.322154795567</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>807.5295756520372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5048,43 +5050,43 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579761</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579761</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>398.4954786600657</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>231.2993793749457</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1053.171308869726</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>884.2351259418192</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>734.1184865294834</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2334.285089135946</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2334.285089135946</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1234.819773699966</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>2817.800993781636</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>2817.800993781636</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>3445.398957336243</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6254,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4515.536424648863</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4295.934959671805</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>4006.859733016003</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319336</v>
+        <v>3275.130390493382</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656829</v>
+        <v>3106.194207565476</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150036</v>
+        <v>2956.07756815314</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942668</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580128</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345491</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384035</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>3456.778855323622</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319336</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656829</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150036</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942668</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580128</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345491</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384035</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2052.064890853473</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.493192213311</v>
+        <v>3267.591475357737</v>
       </c>
       <c r="C37" t="n">
-        <v>2834.086956247061</v>
+        <v>3098.65529242983</v>
       </c>
       <c r="D37" t="n">
-        <v>2708.500263796381</v>
+        <v>2948.538653017494</v>
       </c>
       <c r="E37" t="n">
-        <v>2585.117117175645</v>
+        <v>2800.625559435101</v>
       </c>
       <c r="F37" t="n">
-        <v>2462.75711663939</v>
+        <v>2653.735611937191</v>
       </c>
       <c r="G37" t="n">
-        <v>2320.090964315927</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>2202.909080119781</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2145.352323729351</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2249.630143176794</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2535.361206719452</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>2949.801601912511</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3395.853105660665</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3837.304778337793</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4230.875860063898</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4547.593116654575</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4648.317395612653</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4489.992508229214</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4294.920990213811</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4030.375710519665</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V37" t="n">
-        <v>3800.221169275434</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W37" t="n">
-        <v>3535.33394620013</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X37" t="n">
-        <v>3331.874342263769</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y37" t="n">
-        <v>3135.611710081895</v>
+        <v>3449.239940187977</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,13 +7253,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
         <v>716.6687843969308</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319336</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656829</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319338</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656832</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150038</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2311.700279152292</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.5558870561822</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2021.163366826619</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1732.088140170817</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.40365196493</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.986481927969</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>959.9969310299521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>739.2043518864219</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.25823202432855</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>91.5919098014306</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.45266000108532</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>45.04089287986218</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>135.8503182118947</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.4594738061305</v>
+        <v>147.359901516045</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>73.85777223953392</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>66.73277020259127</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>73.85777223953474</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.19629618688074</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>159.5809595057646</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>43.26526345294988</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>664762.6874365869</v>
+        <v>672487.193187979</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>664762.6874365869</v>
+        <v>672487.193187979</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664762.6874365869</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664762.6874365869</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664762.6874365869</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664762.6874365869</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664762.6874365869</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653646.5512971649</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363185</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309558</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309562</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744246</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16718.11565483777</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483777</v>
-      </c>
       <c r="M4" t="n">
-        <v>16718.11565483777</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483777</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483778</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744603.2960810127</v>
+        <v>-563222.0116216781</v>
       </c>
       <c r="C6" t="n">
-        <v>584141.44964658</v>
+        <v>551529.7719542416</v>
       </c>
       <c r="D6" t="n">
-        <v>584141.44964658</v>
+        <v>391514.3092062421</v>
       </c>
       <c r="E6" t="n">
-        <v>331527.0216824993</v>
+        <v>331527.0216824985</v>
       </c>
       <c r="F6" t="n">
+        <v>656939.4834898547</v>
+      </c>
+      <c r="G6" t="n">
+        <v>656939.4834898548</v>
+      </c>
+      <c r="H6" t="n">
+        <v>656939.4834898546</v>
+      </c>
+      <c r="I6" t="n">
         <v>656939.4834898545</v>
       </c>
-      <c r="G6" t="n">
-        <v>656939.4834898544</v>
-      </c>
-      <c r="H6" t="n">
-        <v>656939.4834898544</v>
-      </c>
-      <c r="I6" t="n">
-        <v>656939.4834898544</v>
-      </c>
       <c r="J6" t="n">
-        <v>439408.2810925769</v>
+        <v>489334.3056798719</v>
       </c>
       <c r="K6" t="n">
-        <v>640679.7318686845</v>
+        <v>656939.4834898545</v>
       </c>
       <c r="L6" t="n">
-        <v>660107.4498623164</v>
+        <v>608645.5134816638</v>
       </c>
       <c r="M6" t="n">
-        <v>575052.4219268044</v>
+        <v>571884.4555543426</v>
       </c>
       <c r="N6" t="n">
-        <v>660107.4498623163</v>
+        <v>656939.4834898547</v>
       </c>
       <c r="O6" t="n">
-        <v>660107.4498623163</v>
+        <v>656939.4834898547</v>
       </c>
       <c r="P6" t="n">
-        <v>656939.4834898544</v>
+        <v>656939.4834898546</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>344.797342803316</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.6105247463953</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.49504937765471</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.903473014615</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>38.79625667445328</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>211.2837482983516</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>113.7908987761685</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.77933077822595</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>283.7071874483104</v>
+        <v>340.4901541394855</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>23.82196317608299</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>145.5644016164878</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29038,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542638</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>328.903832042181</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955532</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439386</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,28 +33499,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>243.172991359853</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>346.7710205055867</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>405.4553316172024</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>600.4551148476376</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709305</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156791</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640643</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>206.7892464195652</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3702678.722783818</v>
+        <v>3698583.081279053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>220.8789552701356</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>37.40802781601008</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.63755728146412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>123.8061823744221</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>42.6448942335111</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.76150183011045</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>108.4721783769029</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.24368752399504</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>189.2395865667825</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>65.11018949396434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>205.9024446242577</v>
       </c>
       <c r="W13" t="n">
-        <v>194.9310885351604</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>54.84205284513853</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>101.393069766707</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.4720786658923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>107.1685137621107</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>79.7011924439779</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>143.5476780877535</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>139.1584054594695</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>91.3278421053881</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>21.44532649588058</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>10.58364443467423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>13.79222725775231</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>126.9420388308264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.45282559760403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.6454412161679</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C2" t="n">
-        <v>511.6829242757562</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D2" t="n">
-        <v>511.6829242757562</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E2" t="n">
-        <v>511.6829242757562</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>504.7374235265527</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>89.03267325084158</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161679</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
@@ -4421,13 +4421,13 @@
         <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>656.2009645206067</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>506.0843251082709</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>358.1712315258778</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>211.2812840279675</v>
       </c>
       <c r="G4" t="n">
         <v>157.1019332386098</v>
@@ -4485,55 +4485,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323095</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>896.0145465323095</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X4" t="n">
-        <v>770.9577966591559</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.9577966591559</v>
+        <v>825.1371474485136</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832.1627361996682</v>
+        <v>934.6665353554965</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>934.6665353554965</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>576.4008367487461</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>576.4008367487461</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.430553844252</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>1982.367666500681</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.367666500681</v>
+        <v>2084.87146565651</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.901908239602</v>
+        <v>1711.40570739543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1218.76257626379</v>
+        <v>1321.266375419618</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.8146435143697</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>160.8146435143697</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>160.8146435143697</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>160.8146435143697</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>160.8146435143697</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>160.8146435143697</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>570.4526592426267</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>342.4631083446094</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.4631083446094</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351813</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.840931351813</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.8811108217975</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1861.526679912771</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1861.526679912771</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1861.526679912771</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1572.423813038415</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1317.739324832528</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1028.322154795567</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1028.322154795567</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.5295756520372</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.212916266271</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321348</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778176</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="14">
@@ -5263,64 +5263,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703119</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579761</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>545.3854261579761</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>398.4954786600657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>231.2993793749457</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.171308869726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>884.2351259418192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>734.1184865294834</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.601903741513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.612352843496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.819773699966</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2383.002557118212</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2817.800993781636</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>2817.800993781636</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3445.398957336243</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4515.536424648863</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4295.934959671805</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4006.859733016003</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3752.175244810116</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,19 +6478,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3275.130390493382</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3106.194207565476</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2956.07756815314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3677.571434467152</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3456.778855323622</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,67 +6834,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2052.064890853473</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1762.98966419767</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1508.305175991783</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W34" t="n">
         <v>1508.305175991783</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3267.591475357737</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.65529242983</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>2948.538653017494</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2800.625559435101</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2653.735611937191</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3449.239940187977</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.161572207407</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>702.4944101284095</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.25823202432855</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0.9556134883066534</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>46.2351986995703</v>
       </c>
       <c r="W13" t="n">
-        <v>91.5919098014306</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>85.45266000108532</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>45.04089287986218</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>73.85777223953392</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>66.73277020259127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>73.85777223953474</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.19629618688074</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>230.6923168279474</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.2340587438923</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="15">
@@ -26316,34 +26316,34 @@
         <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
@@ -26352,7 +26352,7 @@
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744335</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744226</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26472,13 +26472,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563222.0116216781</v>
+        <v>-563222.0116216779</v>
       </c>
       <c r="C6" t="n">
-        <v>551529.7719542416</v>
+        <v>551529.7719542417</v>
       </c>
       <c r="D6" t="n">
         <v>391514.3092062421</v>
       </c>
       <c r="E6" t="n">
-        <v>331527.0216824985</v>
+        <v>331179.6424281421</v>
       </c>
       <c r="F6" t="n">
-        <v>656939.4834898547</v>
+        <v>656592.1042354977</v>
       </c>
       <c r="G6" t="n">
-        <v>656939.4834898548</v>
+        <v>656592.1042354975</v>
       </c>
       <c r="H6" t="n">
-        <v>656939.4834898546</v>
+        <v>656592.1042354975</v>
       </c>
       <c r="I6" t="n">
-        <v>656939.4834898545</v>
+        <v>656592.1042354977</v>
       </c>
       <c r="J6" t="n">
-        <v>489334.3056798719</v>
+        <v>488986.9264255149</v>
       </c>
       <c r="K6" t="n">
-        <v>656939.4834898545</v>
+        <v>656592.1042354978</v>
       </c>
       <c r="L6" t="n">
-        <v>608645.5134816638</v>
+        <v>608298.1342273066</v>
       </c>
       <c r="M6" t="n">
-        <v>571884.4555543426</v>
+        <v>571537.0762999858</v>
       </c>
       <c r="N6" t="n">
-        <v>656939.4834898547</v>
+        <v>656592.1042354978</v>
       </c>
       <c r="O6" t="n">
-        <v>656939.4834898547</v>
+        <v>656592.1042354974</v>
       </c>
       <c r="P6" t="n">
-        <v>656939.4834898546</v>
+        <v>656592.1042354977</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>133.8040863505473</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>263.6105247463953</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>112.6690427633401</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>101.903473014615</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>364.2311515082004</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>211.2837482983516</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.77933077822595</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340.4901541394855</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>217.636459174929</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.82196317608299</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>342.4905264542638</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955532</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439386</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>243.172991359853</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>381.285518532932</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>405.4553316172024</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35029,16 +35029,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>600.4551148476376</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>211.1488143709305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156791</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.1903400640643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>116.3353646931863</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>249.9438064495987</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698583.081279053</v>
+        <v>3700343.611581839</v>
       </c>
     </row>
     <row r="7">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>220.8789552701356</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>213.2066220932631</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>53.63755728146412</v>
+        <v>46.24467307253314</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.6448942335111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>113.026463937225</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>189.2395865667825</v>
+        <v>230.8165163397083</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>205.9024446242577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>139.1584054594695</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>21.44532649588058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>13.79222725775231</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>251.2117044543527</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854568</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450451</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>136.2302827166252</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4427,7 +4427,7 @@
         <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.1371474485136</v>
+        <v>711.8144409709059</v>
       </c>
       <c r="C4" t="n">
-        <v>656.2009645206067</v>
+        <v>542.8782580429991</v>
       </c>
       <c r="D4" t="n">
-        <v>506.0843251082709</v>
+        <v>392.7616186306633</v>
       </c>
       <c r="E4" t="n">
-        <v>358.1712315258778</v>
+        <v>244.8485250482702</v>
       </c>
       <c r="F4" t="n">
-        <v>211.2812840279675</v>
+        <v>97.95857755035982</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4521,19 +4521,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>825.1371474485136</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>825.1371474485136</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>825.1371474485136</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.1371474485136</v>
+        <v>893.4629058011457</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554965</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554965</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="D5" t="n">
-        <v>576.4008367487461</v>
+        <v>576.400836748747</v>
       </c>
       <c r="E5" t="n">
-        <v>576.4008367487461</v>
+        <v>576.400836748747</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>165.4149319591394</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.87146565651</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.40570739543</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419618</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576348</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4792,13 +4792,13 @@
         <v>1012.316163281155</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5235,16 +5235,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1547.449290305074</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -5992,25 +5992,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,16 +6481,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6600,55 +6600,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,16 +6718,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,52 +6919,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1849.578742244367</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.161572207406</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.172021309389</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,13 +7429,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2433.031540895662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2213.430075918604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1924.354849262801</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1669.670361056914</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1380.253191019954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.263640121936</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>931.4710609784063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9556134883066534</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>46.2351986995703</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>230.6923168279474</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.2340587438923</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
@@ -26322,28 +26322,28 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055063</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
@@ -26352,10 +26352,10 @@
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
     </row>
     <row r="3">
@@ -26377,34 +26377,34 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26444,16 +26444,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744226</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563222.0116216779</v>
+        <v>-563222.0116216777</v>
       </c>
       <c r="C6" t="n">
         <v>551529.7719542417</v>
       </c>
       <c r="D6" t="n">
-        <v>391514.3092062421</v>
+        <v>391514.3092062422</v>
       </c>
       <c r="E6" t="n">
-        <v>331179.6424281421</v>
+        <v>331492.2837570636</v>
       </c>
       <c r="F6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.7455644187</v>
       </c>
       <c r="G6" t="n">
-        <v>656592.1042354975</v>
+        <v>656904.7455644193</v>
       </c>
       <c r="H6" t="n">
-        <v>656592.1042354975</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="I6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.745564419</v>
       </c>
       <c r="J6" t="n">
-        <v>488986.9264255149</v>
+        <v>489299.5677544362</v>
       </c>
       <c r="K6" t="n">
-        <v>656592.1042354978</v>
+        <v>656904.7455644192</v>
       </c>
       <c r="L6" t="n">
-        <v>608298.1342273066</v>
+        <v>608610.7755562284</v>
       </c>
       <c r="M6" t="n">
-        <v>571537.0762999858</v>
+        <v>571849.7176289069</v>
       </c>
       <c r="N6" t="n">
-        <v>656592.1042354978</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="O6" t="n">
-        <v>656592.1042354974</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="P6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.7455644185</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26971,34 +26971,34 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>133.8040863505473</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>37.83862803519887</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>112.6690427633401</v>
+        <v>120.061926972271</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>364.2311515082004</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>298.521238835729</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>217.636459174929</v>
+        <v>176.0595294020031</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.451507158408576e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-9.451507158408576e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279222</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159439</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>336.3802954844296</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634694</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059039</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
